--- a/co2-inventar-de.xlsx
+++ b/co2-inventar-de.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ste\Documents\projects\sustainbale-it\co2-inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A094D68-9465-4632-8660-BE43092042B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66635911-093F-4820-A3AC-E51449CF7BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00DFB48A-7FA1-423F-947E-51911387DC15}"/>
   </bookViews>
@@ -18,7 +18,8 @@
     <sheet name="Arbeitsplätze" sheetId="2" r:id="rId3"/>
     <sheet name="Andere-Devices" sheetId="8" r:id="rId4"/>
     <sheet name="Cloud" sheetId="3" r:id="rId5"/>
-    <sheet name="Transport" sheetId="4" r:id="rId6"/>
+    <sheet name="Marketing u. Komm" sheetId="9" r:id="rId6"/>
+    <sheet name="Transport" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
   <si>
     <t>Server-Kennung</t>
   </si>
@@ -72,9 +73,6 @@
     <t>Bemerkung</t>
   </si>
   <si>
-    <t>Schätzung schweizer durchschnitt. PUE, kleinere RZ üblicherweise höher bis 2.3</t>
-  </si>
-  <si>
     <t>Endgerät-Setup-ID</t>
   </si>
   <si>
@@ -99,9 +97,6 @@
     <t>Lebensdauer</t>
   </si>
   <si>
-    <t>ProLiandtDL380 Gen9</t>
-  </si>
-  <si>
     <t>kgCO2eq Graue Energie</t>
   </si>
   <si>
@@ -186,12 +181,6 @@
     <t>DS920+</t>
   </si>
   <si>
-    <t>Archiv-NAS</t>
-  </si>
-  <si>
-    <t>CO2-Inventar</t>
-  </si>
-  <si>
     <t>Mit diesem Sheet, lässt sich das CO2 Inventar einer Organisation erstellen.</t>
   </si>
   <si>
@@ -204,18 +193,12 @@
     <t>Transport-Art</t>
   </si>
   <si>
-    <t>Flight calculators</t>
-  </si>
-  <si>
     <t>https://co2.myclimate.org/de/flight_calculators/new</t>
   </si>
   <si>
     <t>https://www.icao.int/environmental-protection/Carbonoffset/Pages/default.aspx</t>
   </si>
   <si>
-    <t>Car Calculator</t>
-  </si>
-  <si>
     <t>https://co2.myclimate.org/en/car_calculators/new</t>
   </si>
   <si>
@@ -246,23 +229,248 @@
     <t>Main Server</t>
   </si>
   <si>
-    <t>ProLiant DL 380 Gen 8</t>
-  </si>
-  <si>
-    <t>DS224+</t>
-  </si>
-  <si>
     <t>Maschinensteuerung</t>
   </si>
   <si>
     <t>Custom</t>
+  </si>
+  <si>
+    <t>Anleitung</t>
+  </si>
+  <si>
+    <t>Wähle einen Bereich aus, den du erfassen möchtest. Es ist sinnvoll Schritt für Schritt vorzugehen und pro Bereich ein Verständnis zu erarbeiten.</t>
+  </si>
+  <si>
+    <t>Öffne den Tab und fülle diesen mit den Informationen unten im Tab aus.</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Besucher pro Tag</t>
+  </si>
+  <si>
+    <t>kgCO2e/Jahr</t>
+  </si>
+  <si>
+    <t>Felder in Orange werden berechnet.</t>
+  </si>
+  <si>
+    <t>Legende Farben</t>
+  </si>
+  <si>
+    <t>Felder in Grau sind durch dich auszufüllen.</t>
+  </si>
+  <si>
+    <t>mysite.com</t>
+  </si>
+  <si>
+    <t>gCO2 pro Seite</t>
+  </si>
+  <si>
+    <t>Mail-Kampagnen</t>
+  </si>
+  <si>
+    <t>gCO2 pro Mail</t>
+  </si>
+  <si>
+    <t>Empfänger</t>
+  </si>
+  <si>
+    <t>https://www.websitecarbon.com/</t>
+  </si>
+  <si>
+    <t>Websites messen, Anzahl Besucher aus eigener Statistik</t>
+  </si>
+  <si>
+    <t>Anzahl Kampagnen einfüllen</t>
+  </si>
+  <si>
+    <t>CO2 pro Mail (https://www.fortomorrow.eu/en/blog/carbon-email)</t>
+  </si>
+  <si>
+    <t>0.3g kurzes mail, 17g langes mail</t>
+  </si>
+  <si>
+    <t>Total Web</t>
+  </si>
+  <si>
+    <t>Total Mail</t>
+  </si>
+  <si>
+    <t>Image Campaign</t>
+  </si>
+  <si>
+    <t>Anzahl Kampagnen/Jahr</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>Marketing/Kommunikation</t>
+  </si>
+  <si>
+    <t>Total Server</t>
+  </si>
+  <si>
+    <t>Pro Transportart mit Berechnungswebsite ausrechnen.</t>
+  </si>
+  <si>
+    <t>kgCO2 bei Transport Art eintragen</t>
+  </si>
+  <si>
+    <t>Mit gleicher Transport Art in oberer Tabelle Anzahl ergänzen (zB Anzahl Pendeltage)</t>
+  </si>
+  <si>
+    <t>Autofahrten</t>
+  </si>
+  <si>
+    <t>Flüge</t>
+  </si>
+  <si>
+    <t>öffentlicher Verkehr</t>
+  </si>
+  <si>
+    <t>https://calculator.carbonfootprint.com/calculator.aspx?lang=de&amp;tab=6</t>
+  </si>
+  <si>
+    <t>Video-Calls</t>
+  </si>
+  <si>
+    <t>Anzahl Calls</t>
+  </si>
+  <si>
+    <t>Weekly Meetings</t>
+  </si>
+  <si>
+    <t>Call Länge Stunden</t>
+  </si>
+  <si>
+    <t>Anzahl Personen</t>
+  </si>
+  <si>
+    <t>Call-Art</t>
+  </si>
+  <si>
+    <t>Total Calls</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Video HD</t>
+  </si>
+  <si>
+    <t>Anzahl Calls, Personen und Länge angeben, Call Art auswählen</t>
+  </si>
+  <si>
+    <t>Video UHD</t>
+  </si>
+  <si>
+    <t>https://www.cmswire.com/digital-workplace/the-hidden-pollution-cost-of-online-meetings/</t>
+  </si>
+  <si>
+    <t>Netzwerk KWH/GB</t>
+  </si>
+  <si>
+    <t>https://www.green-coding.io/co2-formulas/</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Total Marketing und Kommunikation</t>
+  </si>
+  <si>
+    <t>AWS Cloud Footprint</t>
+  </si>
+  <si>
+    <t>Suche nach: "DS920+ carbon footprint"</t>
+  </si>
+  <si>
+    <t>Boavizta datenbank (nicht sehr aktuell):</t>
+  </si>
+  <si>
+    <t>https://github.com/Boavizta/environmental-footprint-data</t>
+  </si>
+  <si>
+    <t>Durchschnittlicher CO2 Energie mix suchen oder CO2 der gekauften Energieart eintragen.</t>
+  </si>
+  <si>
+    <t>Siehe auch:</t>
+  </si>
+  <si>
+    <t>https://app.electricitymaps.com/map</t>
+  </si>
+  <si>
+    <t>PUE des Datencenters eintragen</t>
+  </si>
+  <si>
+    <t>Pro Gerät Verbrauch und graue Energie suchen</t>
+  </si>
+  <si>
+    <t>Wenn unbekannt schätzen oder 1 eintragen</t>
+  </si>
+  <si>
+    <t>PUE üblicherweise von 1.2 bis 2.5, kleinere RZ üblicherweise höher</t>
+  </si>
+  <si>
+    <t>Device-Setup-ID muss in den Tabellen gleich sein</t>
+  </si>
+  <si>
+    <t>Cloud provider Daten abfragen</t>
+  </si>
+  <si>
+    <t>z.B. AWS Carbon Dashboard</t>
+  </si>
+  <si>
+    <t>https://aws.amazon.com/de/aws-cost-management/aws-customer-carbon-footprint-tool/</t>
+  </si>
+  <si>
+    <t>Oder mit folgendem Tool Schätzen:</t>
+  </si>
+  <si>
+    <t>https://github.com/green-coding-solutions/eco-server-energy-estimation</t>
+  </si>
+  <si>
+    <t>CO2-Inventar IT-Infrastruktur</t>
+  </si>
+  <si>
+    <t>© Stefan Aeschbacher 2025 - sustainabletech.io</t>
+  </si>
+  <si>
+    <t>Fehler/Verbesserungen:</t>
+  </si>
+  <si>
+    <t>https://github.com/imix/co2-inventory/issues</t>
+  </si>
+  <si>
+    <t>https://github.com/imix/co2-inventory</t>
+  </si>
+  <si>
+    <t>aktuelle Version</t>
+  </si>
+  <si>
+    <t>Weisse Felder Anleitung/Tabellen nicht verändern</t>
+  </si>
+  <si>
+    <t>Beispieldaten zur Verständnishilfe in den Sheets, vor dem Ausfüllen löschen.</t>
+  </si>
+  <si>
+    <t>ProLiandtDL380 Gen 10</t>
+  </si>
+  <si>
+    <t>ProLiant DL 380 Gen 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +488,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Lato"/>
       <family val="2"/>
     </font>
@@ -304,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -351,12 +565,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -368,6 +591,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -384,6 +611,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1455420</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C1445E-AC4B-645D-44CD-32753C2AEF3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="868680" y="4838700"/>
+          <a:ext cx="1440180" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,71 +976,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19068078-33AE-48DF-88A2-9A7F517C507E}">
-  <dimension ref="A2:C15"/>
+  <dimension ref="A2:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
+    <row r="2" spans="1:3" ht="22.2" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="8" t="s">
-        <v>17</v>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6">
+        <f>Server!I11</f>
+        <v>573.24306666666666</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="6">
-        <f>Server!I11</f>
-        <v>596.96506666666664</v>
+        <f ca="1">Arbeitsplätze!I7</f>
+        <v>1255.8050000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="6">
-        <f ca="1">Arbeitsplätze!I7</f>
-        <v>1255.8050000000001</v>
+        <f ca="1">'Andere-Devices'!I7</f>
+        <v>658.20266666666669</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6">
-        <f ca="1">'Andere-Devices'!I7</f>
-        <v>658.20266666666669</v>
+        <v>39</v>
+      </c>
+      <c r="C11" s="2">
+        <f>Cloud!B6</f>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="2">
-        <f>Cloud!B6</f>
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="C12" s="6">
+        <f>'Marketing u. Komm'!C1</f>
+        <v>7165.1822499999998</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <f>Transport!C10</f>
@@ -756,25 +1067,85 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="9">
-        <f ca="1">SUM(C9:C13)</f>
-        <v>11310.972733333334</v>
+        <f ca="1">SUM(C8:C13)</f>
+        <v>18885.432983333332</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C29" r:id="rId1" xr:uid="{420B7DBD-1B4D-4030-8EA3-390698C60411}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{2D96C7B5-7C39-4596-9F71-DDCB3242C4B3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D4AC3F-6295-4FEB-9E9F-27E4A1E23E64}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -807,24 +1178,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2">
         <v>2700</v>
@@ -839,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6">
         <f>IFERROR((VLOOKUP(F2,$A$15:$D$21,2)*VLOOKUP(F2,$A$15:$D$21,3)*D2+(E2/G2))/1000,0)</f>
@@ -848,13 +1219,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2">
         <f>0.1*2700</f>
@@ -877,13 +1248,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D4" s="2">
         <v>171</v>
@@ -904,31 +1275,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="2">
-        <v>130</v>
-      </c>
-      <c r="E5" s="2">
-        <v>50</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>5</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6">
         <f t="shared" si="0"/>
-        <v>23.722000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1003,11 +1360,11 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="I11" s="9">
         <f>SUM(I2:I10)</f>
-        <v>596.96506666666664</v>
+        <v>573.24306666666666</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1023,6 +1380,9 @@
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F14" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1034,8 +1394,9 @@
       <c r="C15" s="2">
         <v>114</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
+      <c r="D15" s="2"/>
+      <c r="F15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1043,52 +1404,94 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="https://www.hpe.com/psnow/downloadDoc/HPE%20product%20carbon%20footprint%20%E2%80%93%20HPE%20ProLiant%20DL380%20Gen10%20server%20data%20sheet-a50004545enw.pdf?id=a50004545enw&amp;isFutureVersion=true&amp;ver=&amp;form=false&amp;preview=false&amp;print=&amp;hf=regular&amp;r=&amp;section=&amp;prelaunchSection=&amp;softrollSection=&amp;deepLink=&amp;isLinearized=false&amp;contentDisposition=attachment" xr:uid="{1FD1CDE4-B875-4767-8F4F-40AE827AB51E}"/>
+    <hyperlink ref="F18" r:id="rId2" xr:uid="{4C355E38-8E9A-4D95-A804-BDEA9F47D860}"/>
+    <hyperlink ref="F23" r:id="rId3" xr:uid="{4DBB6C20-3243-4755-BFFA-C4D71B6C2A78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2AFA676-4543-48A0-BAD5-44AE4469035E}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:I7"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1104,19 +1507,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
@@ -1125,10 +1528,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1136,10 +1539,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -1166,10 +1569,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
@@ -1253,10 +1656,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="9">
         <f ca="1">SUM(I2:I6)</f>
@@ -1265,33 +1668,33 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1313,10 +1716,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1338,10 +1741,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1363,10 +1766,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1388,10 +1791,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1481,6 +1884,9 @@
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E22" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1489,29 +1895,42 @@
       <c r="B23" s="2">
         <v>114</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>10</v>
+      <c r="C23" s="2"/>
+      <c r="E23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
+      <c r="E26" s="10" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -1522,19 +1941,41 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="10" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E26" r:id="rId1" xr:uid="{1FB0E899-C57E-42EA-86AC-6534CA6810B9}"/>
+    <hyperlink ref="E32" r:id="rId2" xr:uid="{CB035DDA-6E4F-4C13-8FBF-0AAE3176C8EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D0D55-2CF2-4276-9928-338E80E097C9}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1550,19 +1991,19 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
@@ -1571,10 +2012,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1582,11 +2023,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2">
         <v>15</v>
@@ -1612,11 +2053,11 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2">
         <v>15</v>
@@ -1699,10 +2140,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="9">
         <f ca="1">SUM(I2:I6)</f>
@@ -1711,33 +2152,33 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1759,10 +2200,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1784,10 +2225,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1907,6 +2348,9 @@
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="E22" s="13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -1915,29 +2359,42 @@
       <c r="B23" s="2">
         <v>114</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>10</v>
+      <c r="C23" s="2"/>
+      <c r="E23" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
+      <c r="E25" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
+      <c r="E26" s="10" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
+      <c r="E27" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
@@ -1948,78 +2405,438 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="10" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E26" r:id="rId1" xr:uid="{CF660D81-856F-48F3-AF45-D454A55DB102}"/>
+    <hyperlink ref="E32" r:id="rId2" xr:uid="{F0128631-CF49-44CC-B564-AB2B12E562EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6B82F6-EC85-4152-99A0-2081A93FC63E}">
-  <dimension ref="A2:C6"/>
+  <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.19921875" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="2">
+        <v>433</v>
+      </c>
       <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <f>SUM(B3:B5)</f>
-        <v>0</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{51A70993-A734-4863-A964-6F8FB24333B0}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{C999A833-B9E9-4957-B4C9-BBF4B256C27A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5590E62-692C-462C-AD4C-BB7B65636D1B}">
-  <dimension ref="A2:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3369EF7-9EFA-4255-B07E-3D279B9089F6}">
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.8984375" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="11">
+        <f>D8+E14+F21</f>
+        <v>7165.1822499999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="6">
+        <f>(B5*C5*365)/1000</f>
+        <v>6935</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6">
+        <f>(B6*C6*365)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="6">
+        <f>(B7*C7*365)/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="6">
+        <f>SUM(D5:D7)</f>
+        <v>6935</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="2">
+        <f>(B11*C11*D11)/1000</f>
+        <v>170</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="2">
+        <f>(B12*C12*D12)/1000</f>
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <f>(B13*C13*D13)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2">
+        <f>SUM(E11:E13)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="2">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="2">
+        <f>IFERROR(B18*C18*D18*(VLOOKUP(E18,H22:I25,2)*I27),0)</f>
+        <v>0.18225000000000002</v>
+      </c>
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <f>IFERROR((B19*C19*D19*H26),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <f>IFERROR((B20*C20*D20*H27),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="2">
+        <f>SUM(F18:F20)</f>
+        <v>0.18225000000000002</v>
+      </c>
+      <c r="I21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27">
+        <v>2.8124999999999999E-3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" xr:uid="{8595490C-15C6-4DEA-AE4E-BB70835ACB59}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5590E62-692C-462C-AD4C-BB7B65636D1B}">
+  <dimension ref="A2:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2028,50 +2845,62 @@
     <col min="2" max="2" width="22.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <f>IFERROR(VLOOKUP(B3,$A$13:$B$19,2)*A3,0)</f>
         <v>800</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
         <f>IFERROR(VLOOKUP(B4,$A$13:$B$19,2)*A4,0)</f>
         <v>8000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C9" si="0">IFERROR(VLOOKUP(B5,$A$13:$B$19,2)*A5,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
@@ -2079,127 +2908,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <f>SUM(C3:C9)</f>
         <v>8800</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1" xr:uid="{AC45E8C4-83EE-45DF-8195-B0B17117C311}"/>
-    <hyperlink ref="A28" r:id="rId2" xr:uid="{26389E7A-2CC6-4890-B0B8-035A327212A2}"/>
-    <hyperlink ref="A29" r:id="rId3" xr:uid="{22F0CAE4-F1A0-4F6A-8B16-448534404305}"/>
-    <hyperlink ref="A24" r:id="rId4" xr:uid="{D0E9C54B-81A7-4D75-A3D7-AA8F16ABDE4B}"/>
-    <hyperlink ref="A23" r:id="rId5" xr:uid="{8900EFC6-2F1F-4CA1-A68D-864E0BC92113}"/>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{AC45E8C4-83EE-45DF-8195-B0B17117C311}"/>
+    <hyperlink ref="E13" r:id="rId2" xr:uid="{26389E7A-2CC6-4890-B0B8-035A327212A2}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{22F0CAE4-F1A0-4F6A-8B16-448534404305}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{D0E9C54B-81A7-4D75-A3D7-AA8F16ABDE4B}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{8900EFC6-2F1F-4CA1-A68D-864E0BC92113}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{F46573C0-3F40-4B51-9B76-C4A930EFBA25}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/co2-inventar-de.xlsx
+++ b/co2-inventar-de.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ste\Documents\projects\sustainbale-it\co2-inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66635911-093F-4820-A3AC-E51449CF7BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C602F41-4BD0-41AC-99CE-703C0AEB70A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00DFB48A-7FA1-423F-947E-51911387DC15}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00DFB48A-7FA1-423F-947E-51911387DC15}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung" sheetId="6" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="145">
   <si>
     <t>Server-Kennung</t>
   </si>
@@ -52,12 +52,6 @@
     <t>Typ</t>
   </si>
   <si>
-    <t>Jährlich kWh</t>
-  </si>
-  <si>
-    <t>Graue Energie</t>
-  </si>
-  <si>
     <t>Standort</t>
   </si>
   <si>
@@ -118,12 +112,6 @@
     <t>Bildschirm</t>
   </si>
   <si>
-    <t>Total Jährlich kWh</t>
-  </si>
-  <si>
-    <t>Total graue Energie kgCO2</t>
-  </si>
-  <si>
     <t>Einzeln kWh jährlich</t>
   </si>
   <si>
@@ -241,39 +229,21 @@
     <t>Wähle einen Bereich aus, den du erfassen möchtest. Es ist sinnvoll Schritt für Schritt vorzugehen und pro Bereich ein Verständnis zu erarbeiten.</t>
   </si>
   <si>
-    <t>Öffne den Tab und fülle diesen mit den Informationen unten im Tab aus.</t>
-  </si>
-  <si>
     <t>Website</t>
   </si>
   <si>
     <t>Besucher pro Tag</t>
   </si>
   <si>
-    <t>kgCO2e/Jahr</t>
-  </si>
-  <si>
-    <t>Felder in Orange werden berechnet.</t>
-  </si>
-  <si>
     <t>Legende Farben</t>
   </si>
   <si>
-    <t>Felder in Grau sind durch dich auszufüllen.</t>
-  </si>
-  <si>
     <t>mysite.com</t>
   </si>
   <si>
-    <t>gCO2 pro Seite</t>
-  </si>
-  <si>
     <t>Mail-Kampagnen</t>
   </si>
   <si>
-    <t>gCO2 pro Mail</t>
-  </si>
-  <si>
     <t>Empfänger</t>
   </si>
   <si>
@@ -283,12 +253,6 @@
     <t>Websites messen, Anzahl Besucher aus eigener Statistik</t>
   </si>
   <si>
-    <t>Anzahl Kampagnen einfüllen</t>
-  </si>
-  <si>
-    <t>CO2 pro Mail (https://www.fortomorrow.eu/en/blog/carbon-email)</t>
-  </si>
-  <si>
     <t>0.3g kurzes mail, 17g langes mail</t>
   </si>
   <si>
@@ -364,9 +328,6 @@
     <t>Video HD</t>
   </si>
   <si>
-    <t>Anzahl Calls, Personen und Länge angeben, Call Art auswählen</t>
-  </si>
-  <si>
     <t>Video UHD</t>
   </si>
   <si>
@@ -415,9 +376,6 @@
     <t>Wenn unbekannt schätzen oder 1 eintragen</t>
   </si>
   <si>
-    <t>PUE üblicherweise von 1.2 bis 2.5, kleinere RZ üblicherweise höher</t>
-  </si>
-  <si>
     <t>Device-Setup-ID muss in den Tabellen gleich sein</t>
   </si>
   <si>
@@ -430,9 +388,6 @@
     <t>https://aws.amazon.com/de/aws-cost-management/aws-customer-carbon-footprint-tool/</t>
   </si>
   <si>
-    <t>Oder mit folgendem Tool Schätzen:</t>
-  </si>
-  <si>
     <t>https://github.com/green-coding-solutions/eco-server-energy-estimation</t>
   </si>
   <si>
@@ -454,9 +409,6 @@
     <t>aktuelle Version</t>
   </si>
   <si>
-    <t>Weisse Felder Anleitung/Tabellen nicht verändern</t>
-  </si>
-  <si>
     <t>Beispieldaten zur Verständnishilfe in den Sheets, vor dem Ausfüllen löschen.</t>
   </si>
   <si>
@@ -464,6 +416,66 @@
   </si>
   <si>
     <t>ProLiant DL 380 Gen 9</t>
+  </si>
+  <si>
+    <t>Öffne den Tab lies die Anleitung und fülle es aus.</t>
+  </si>
+  <si>
+    <t>Spalten mit grauem Titel sind durch dich auszufüllen.</t>
+  </si>
+  <si>
+    <t>Spalten mit orangen Titel sind durch dich auszufüllen.</t>
+  </si>
+  <si>
+    <t>graues CO2 kg</t>
+  </si>
+  <si>
+    <t>kWh/Jahr</t>
+  </si>
+  <si>
+    <t>Total kWh/Jahr</t>
+  </si>
+  <si>
+    <t>Total graue kgCO2eq</t>
+  </si>
+  <si>
+    <t>kgCO2eq graue Energie</t>
+  </si>
+  <si>
+    <t>gCO2eq/Seite</t>
+  </si>
+  <si>
+    <t>gCO2eq/Mail</t>
+  </si>
+  <si>
+    <t>kgCO2eq/Jahr</t>
+  </si>
+  <si>
+    <t>kgCO2eq</t>
+  </si>
+  <si>
+    <t>Durchschnittlicher CO2eq gehalt deines Energie mix suchen oder CO2eq der gekauften Energieart eintragen.</t>
+  </si>
+  <si>
+    <t>PUE üblicherweise von 1.2 bis 2.5, kleinere und ältere RZ üblicherweise höher</t>
+  </si>
+  <si>
+    <t>Oder mit folgendem Tool schätzen (für cloud server):</t>
+  </si>
+  <si>
+    <t>CO2eq/email (https://www.fortomorrow.eu/en/blog/carbon-email)</t>
+  </si>
+  <si>
+    <t>Anzahl Kampagnen und Empfänger einfüllen</t>
+  </si>
+  <si>
+    <t>Anzahl Calls, Personen und Länge angeben</t>
+  </si>
+  <si>
+    <t>Call Art aud der Liste unten auswählen</t>
+  </si>
+  <si>
+    <t>Text ausserhalb der Tabellen nicht bearbeiten</t>
   </si>
 </sst>
 </file>
@@ -518,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -565,21 +577,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -592,7 +595,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -618,22 +620,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1455420</xdr:colOff>
+      <xdr:colOff>1447800</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
+        <xdr:cNvPr id="3" name="Grafik 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C1445E-AC4B-645D-44CD-32753C2AEF3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D1CA636-8312-6CF2-D2FC-66380FA18FF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -656,7 +658,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="868680" y="4838700"/>
+          <a:off x="1257300" y="5356860"/>
           <a:ext cx="1440180" cy="502920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -979,7 +981,7 @@
   <dimension ref="A2:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -989,31 +991,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="22.2" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>131</v>
+      <c r="A2" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6">
         <f>Server!I11</f>
@@ -1022,7 +1024,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6">
         <f ca="1">Arbeitsplätze!I7</f>
@@ -1031,7 +1033,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6">
         <f ca="1">'Andere-Devices'!I7</f>
@@ -1040,7 +1042,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <f>Cloud!B6</f>
@@ -1049,7 +1051,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C12" s="6">
         <f>'Marketing u. Komm'!C1</f>
@@ -1058,7 +1060,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <f>Transport!C10</f>
@@ -1067,7 +1069,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="9">
         <f ca="1">SUM(C8:C13)</f>
@@ -1075,58 +1077,58 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>64</v>
+      <c r="A18" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>71</v>
+      <c r="A23" s="12" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1147,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1169,33 +1171,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2">
         <v>2700</v>
@@ -1204,28 +1206,28 @@
         <v>1700</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
         <v>10</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I2" s="6">
-        <f>IFERROR((VLOOKUP(F2,$A$15:$D$21,2)*VLOOKUP(F2,$A$15:$D$21,3)*D2+(E2/G2))/1000,0)</f>
+        <f>IFERROR((_xlfn.XLOOKUP(F2,$A$15:$A$21,$B$15:$B$21,0)*_xlfn.XLOOKUP(F2,$A$15:$A$21,$C$15:$C$21,0)*D2+(E2/G2))/1000,0)</f>
         <v>492.65</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2">
         <f>0.1*2700</f>
@@ -1235,26 +1237,26 @@
         <v>1700</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2">
         <v>12</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I10" si="0">IFERROR((VLOOKUP(F3,$A$15:$D$21,2)*VLOOKUP(F3,$A$15:$D$21,3)*D3+(E3/G3))/1000,0)</f>
+        <f t="shared" ref="I3:I10" si="0">IFERROR((_xlfn.XLOOKUP(F3,$A$15:$A$21,$B$15:$B$21,0)*_xlfn.XLOOKUP(F3,$A$15:$A$21,$C$15:$C$21,0)*D3+(E3/G3))/1000,0)</f>
         <v>49.389666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2">
         <v>171</v>
@@ -1263,7 +1265,7 @@
         <v>65</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2">
         <v>5</v>
@@ -1360,7 +1362,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H11" s="1" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I11" s="9">
         <f>SUM(I2:I10)</f>
@@ -1369,24 +1371,24 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>64</v>
+      <c r="F14" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2">
         <v>1.6</v>
@@ -1396,7 +1398,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1405,7 +1407,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1414,7 +1416,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1423,7 +1425,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1438,7 +1440,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,32 +1449,32 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F23" s="10" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1493,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1502,36 +1504,36 @@
     <col min="5" max="5" width="20.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1539,28 +1541,28 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
         <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">A2*SUMIF(A11:F19,B2,F11:F101)</f>
+        <f ca="1">A2*SUMIF($A$11:$F$19,B2,$F$11:$F$101)</f>
         <v>400</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">A2*SUMIF(A11:G19,B2,G11:G101)</f>
+        <f ca="1">A2*SUMIF($A$11:$G$19,B2,$G$11:$G$101)</f>
         <v>3200</v>
       </c>
       <c r="I2" s="6">
-        <f ca="1">IFERROR((VLOOKUP(F2,$A$23:$C$29,2)*G2)/1000+(H2/E2),0)</f>
+        <f ca="1">IFERROR((_xlfn.XLOOKUP(F2,$A$23:$A$29,$B$23:$B$29)*G2)/1000+(H2/E2),0)</f>
         <v>845.6</v>
       </c>
     </row>
@@ -1569,28 +1571,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G6" ca="1" si="0">A3*SUMIF(A12:F20,B3,F12:F102)</f>
+        <f ca="1">A3*SUMIF($A$11:$F$19,B3,$F$11:$F$101)</f>
         <v>720</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H6" ca="1" si="1">A3*SUMIF(A12:G20,B3,G12:G102)</f>
+        <f t="shared" ref="H3:H6" ca="1" si="0">A3*SUMIF($A$11:$G$19,B3,$G$11:$G$101)</f>
         <v>2625</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I6" ca="1" si="2">IFERROR((VLOOKUP(F3,$A$23:$C$29,2)*G3)/1000+(H3/E3),0)</f>
+        <f ca="1">IFERROR((_xlfn.XLOOKUP(F3,$A$23:$A$29,$B$23:$B$29)*G3)/1000+(H3/E3),0)</f>
         <v>410.20499999999998</v>
       </c>
     </row>
@@ -1602,15 +1604,15 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
+        <f ca="1">A4*SUMIF($A$11:$F$19,B4,$F$11:$F$101)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
       <c r="I4" s="6">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IFERROR((_xlfn.XLOOKUP(F4,$A$23:$A$29,$B$23:$B$29)*G4)/1000+(H4/E4),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1622,15 +1624,15 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
+        <f ca="1">A5*SUMIF($A$11:$F$19,B5,$F$11:$F$101)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
       <c r="I5" s="6">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IFERROR((_xlfn.XLOOKUP(F5,$A$23:$A$29,$B$23:$B$29)*G5)/1000+(H5/E5),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1642,24 +1644,24 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
+        <f ca="1">A6*SUMIF($A$11:$F$19,B6,$F$11:$F$101)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
       <c r="I6" s="6">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IFERROR((_xlfn.XLOOKUP(F6,$A$23:$A$29,$B$23:$B$29)*G6)/1000+(H6/E6),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I7" s="9">
         <f ca="1">SUM(I2:I6)</f>
@@ -1668,33 +1670,33 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1716,10 +1718,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1731,20 +1733,20 @@
         <v>150</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:F19" si="3">C12*D12</f>
+        <f t="shared" ref="F12:F19" si="1">C12*D12</f>
         <v>48</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" ref="G12:G19" si="4">C12*E12</f>
+        <f t="shared" ref="G12:G19" si="2">C12*E12</f>
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1756,20 +1758,20 @@
         <v>50</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1781,20 +1783,20 @@
         <v>675</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1806,11 +1808,11 @@
         <v>200</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
     </row>
@@ -1821,11 +1823,11 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1836,11 +1838,11 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1851,11 +1853,11 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1866,38 +1868,38 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>64</v>
+      <c r="E22" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2">
         <v>114</v>
       </c>
       <c r="C23" s="2"/>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1905,7 +1907,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1913,7 +1915,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1921,7 +1923,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="E26" s="10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1929,7 +1931,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1942,22 +1944,22 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E32" s="10" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1975,7 +1977,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1986,36 +1988,36 @@
     <col min="5" max="5" width="20.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>3</v>
+        <v>129</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2023,28 +2025,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2">
         <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">A2*SUMIF(A11:F19,B2,F11:F101)</f>
+        <f ca="1">A2*SUMIF($A$11:$F$19,B2,$F$11:$F$101)</f>
         <v>4024</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">A2*SUMIF(A11:G19,B2,G11:G101)</f>
+        <f ca="1">A2*SUMIF($A$11:$G$19,B2,$G$11:$G$101)</f>
         <v>2150</v>
       </c>
       <c r="I2" s="6">
-        <f ca="1">IFERROR((VLOOKUP(F2,$A$23:$C$29,2)*G2)/1000+(H2/E2),0)</f>
+        <f ca="1">IFERROR((_xlfn.XLOOKUP(F2,$A$23:$A$29,$B$23:$B$29)*G2)/1000+(H2/E2),0)</f>
         <v>602.06933333333336</v>
       </c>
     </row>
@@ -2053,28 +2055,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2">
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">A3*SUMIF(A12:F20,B3,F12:F102)</f>
+        <f t="shared" ref="G3:G6" ca="1" si="0">A3*SUMIF($A$11:$F$19,B3,$F$11:$F$101)</f>
         <v>200</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">A3*SUMIF(A12:G20,B3,G12:G102)</f>
+        <f t="shared" ref="H3:H6" ca="1" si="1">A3*SUMIF($A$11:$G$19,B3,$G$11:$G$101)</f>
         <v>500</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I6" ca="1" si="0">IFERROR((VLOOKUP(F3,$A$23:$C$29,2)*G3)/1000+(H3/E3),0)</f>
+        <f ca="1">IFERROR((_xlfn.XLOOKUP(F3,$A$23:$A$29,$B$23:$B$29)*G3)/1000+(H3/E3),0)</f>
         <v>56.13333333333334</v>
       </c>
     </row>
@@ -2086,15 +2088,15 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <f ca="1">A4*SUMIF(A13:F21,B4,F13:F103)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">A4*SUMIF(A13:G21,B4,G13:G103)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR((_xlfn.XLOOKUP(F4,$A$23:$A$29,$B$23:$B$29)*G4)/1000+(H4/E4),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2106,15 +2108,15 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <f ca="1">A5*SUMIF(A14:F22,B5,F14:F104)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">A5*SUMIF(A14:G22,B5,G14:G104)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR((_xlfn.XLOOKUP(F5,$A$23:$A$29,$B$23:$B$29)*G5)/1000+(H5/E5),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2126,24 +2128,24 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <f ca="1">A6*SUMIF(A15:F23,B6,F15:F105)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">A6*SUMIF(A15:G23,B6,G15:G105)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">IFERROR((_xlfn.XLOOKUP(F6,$A$23:$A$29,$B$23:$B$29)*G6)/1000+(H6/E6),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I7" s="9">
         <f ca="1">SUM(I2:I6)</f>
@@ -2152,33 +2154,33 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -2200,10 +2202,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -2215,20 +2217,20 @@
         <v>150</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ref="F12:F19" si="1">C12*D12</f>
+        <f t="shared" ref="F12:F19" si="2">C12*D12</f>
         <v>24</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" ref="G12:G19" si="2">C12*E12</f>
+        <f t="shared" ref="G12:G19" si="3">C12*E12</f>
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -2240,11 +2242,11 @@
         <v>100</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
@@ -2255,11 +2257,11 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2270,11 +2272,11 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2285,11 +2287,11 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2300,11 +2302,11 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2315,11 +2317,11 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -2330,38 +2332,38 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>64</v>
+      <c r="E22" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2">
         <v>114</v>
       </c>
       <c r="C23" s="2"/>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,7 +2371,7 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2377,7 +2379,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2385,7 +2387,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="E26" s="10" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2393,7 +2395,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="E27" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2406,22 +2408,22 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E32" s="10" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +2441,7 @@
   <dimension ref="A2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2449,42 +2451,42 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>64</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2">
         <v>433</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2492,12 +2494,12 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="E5" s="10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <f>SUM(B3:B5)</f>
@@ -2506,12 +2508,12 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" s="10" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2525,60 +2527,75 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3369EF7-9EFA-4255-B07E-3D279B9089F6}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F17" sqref="F17:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.8984375" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C1" s="11">
-        <f>D8+E14+F21</f>
+        <f>D7+E13+F20</f>
         <v>7165.1822499999998</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="A4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="6">
+        <f>(B4*C4*365)/1000</f>
+        <v>6935</v>
+      </c>
+      <c r="H4" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="13" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>10000</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="6">
         <f>(B5*C5*365)/1000</f>
-        <v>6935</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2589,157 +2606,159 @@
         <f>(B6*C6*365)/1000</f>
         <v>0</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D7" s="6">
-        <f>(B7*C7*365)/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="6">
-        <f>SUM(D5:D7)</f>
+        <f>SUM(D4:D6)</f>
         <v>6935</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>64</v>
+      <c r="A10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="2">
+        <f>(B10*C10*D10)/1000</f>
+        <v>170</v>
+      </c>
+      <c r="H10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B11" s="2">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
         <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>17</v>
       </c>
       <c r="D11" s="2">
         <v>5000</v>
       </c>
       <c r="E11" s="2">
         <f>(B11*C11*D11)/1000</f>
-        <v>170</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="2">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>5000</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2">
         <f>(B12*C12*D12)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2">
+        <f>SUM(E10:E12)</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <f>(B13*C13*D13)/1000</f>
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="2">
-        <f>SUM(E11:E13)</f>
-        <v>230</v>
-      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>64</v>
+      <c r="A17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="2">
+        <v>40</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="2">
+        <f>B17*C17*D17*(_xlfn.XLOOKUP(E17,$H$21:$H$24,$I$21:$I$24,0)*$I$26)</f>
+        <v>0.18225000000000002</v>
+      </c>
+      <c r="H17" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="2">
-        <v>40</v>
-      </c>
-      <c r="C18" s="2">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2">
-        <f>IFERROR(B18*C18*D18*(VLOOKUP(E18,H22:I25,2)*I27),0)</f>
-        <v>0.18225000000000002</v>
+        <f>B18*C18*D18*(_xlfn.XLOOKUP(E18,$H$21:$H$24,$I$21:$I$24,0)*$I$26)</f>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2749,82 +2768,71 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2">
-        <f>IFERROR((B19*C19*D19*H26),0)</f>
+        <f>B19*C19*D19*(_xlfn.XLOOKUP(E19,$H$21:$H$24,$I$21:$I$24,0)*$I$26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F20" s="2">
-        <f>IFERROR((B20*C20*D20*H27),0)</f>
-        <v>0</v>
+        <f>SUM(F17:F19)</f>
+        <v>0.18225000000000002</v>
+      </c>
+      <c r="I20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="2">
-        <f>SUM(F18:F20)</f>
-        <v>0.18225000000000002</v>
-      </c>
-      <c r="I21" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" t="s">
-        <v>109</v>
+      <c r="H21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21">
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H22" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="I22">
-        <v>3.2000000000000001E-2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I23">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="I24">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H25" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25">
         <v>1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H27" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26">
         <v>2.8124999999999999E-3</v>
       </c>
-      <c r="J27" t="s">
-        <v>111</v>
+      <c r="J26" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{8595490C-15C6-4DEA-AE4E-BB70835ACB59}"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{8595490C-15C6-4DEA-AE4E-BB70835ACB59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -2836,7 +2844,7 @@
   <dimension ref="A2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E19"/>
+      <selection activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2847,16 +2855,16 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>64</v>
+        <v>136</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2864,14 +2872,14 @@
         <v>200</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2">
-        <f>IFERROR(VLOOKUP(B3,$A$13:$B$19,2)*A3,0)</f>
+        <f>_xlfn.XLOOKUP(B3,$A$13:$A$19,$B$13:$B$19,0)*A3</f>
         <v>800</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2879,25 +2887,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
-        <f>IFERROR(VLOOKUP(B4,$A$13:$B$19,2)*A4,0)</f>
+        <f t="shared" ref="C4:C9" si="0">_xlfn.XLOOKUP(B4,$A$13:$A$19,$B$13:$B$19,0)*A4</f>
         <v>8000</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C9" si="0">IFERROR(VLOOKUP(B5,$A$13:$B$19,2)*A5,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2916,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2927,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2938,12 +2946,12 @@
         <v>0</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <f>SUM(C3:C9)</f>
@@ -2952,40 +2960,40 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2">
         <v>2000</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2">
         <v>4</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2996,14 +3004,14 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="E17" s="10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
